--- a/Data/USA_States_Populations_2014.xlsx
+++ b/Data/USA_States_Populations_2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>State</t>
   </si>
@@ -187,13 +187,154 @@
   </si>
   <si>
     <t>In Millions</t>
+  </si>
+  <si>
+    <t>Stems</t>
+  </si>
+  <si>
+    <t>0L</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +369,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,24 +400,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -593,15 +827,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="37" width="3.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:37" ht="16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -612,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:37">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
@@ -622,7 +860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:37" ht="16">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -637,7 +875,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:37" ht="17" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -651,8 +889,42 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+    </row>
+    <row r="5" spans="1:37" ht="17" thickTop="1">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -666,8 +938,98 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -681,8 +1043,68 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+    </row>
+    <row r="7" spans="1:37" ht="16">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -696,8 +1118,48 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="13">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13">
+        <v>28</v>
+      </c>
+      <c r="L7" s="13">
+        <v>29</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+    </row>
+    <row r="8" spans="1:37" ht="16">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -711,8 +1173,44 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+    </row>
+    <row r="9" spans="1:37" ht="16">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -726,8 +1224,40 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+    </row>
+    <row r="10" spans="1:37" ht="16">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -741,8 +1271,42 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+    </row>
+    <row r="11" spans="1:37" ht="16">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -756,8 +1320,40 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+    </row>
+    <row r="12" spans="1:37" ht="16">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -771,8 +1367,42 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+    </row>
+    <row r="13" spans="1:37" ht="16">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -787,7 +1417,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:37" ht="16">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -802,7 +1432,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:37" ht="16">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -817,7 +1447,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:37" ht="16">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -832,7 +1462,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -847,7 +1477,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -862,7 +1492,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -877,7 +1507,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -892,7 +1522,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -907,7 +1537,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -922,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -937,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -952,7 +1582,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -967,7 +1597,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -982,7 +1612,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1627,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1012,7 +1642,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1657,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1672,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1687,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -1072,7 +1702,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1717,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1732,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1747,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -1147,7 +1777,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1792,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1807,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1822,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1852,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1237,7 +1867,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1882,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1897,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +1927,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1942,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1957,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1972,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1987,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +2002,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1401,6 +2031,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="A53" r:id="rId2"/>
@@ -1456,7 +2087,7 @@
     <hyperlink ref="A3" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
